--- a/test/xls/CostumStatic.xlsx
+++ b/test/xls/CostumStatic.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="CostumeStatic" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107">
   <si>
     <t>ClassName</t>
   </si>
@@ -43,6 +43,9 @@
     <t>CostumeType</t>
   </si>
   <si>
+    <t>BodyWithEar</t>
+  </si>
+  <si>
     <t>CostumeResource</t>
   </si>
   <si>
@@ -64,12 +67,18 @@
     <t>CostumeIconName</t>
   </si>
   <si>
+    <t>CostumeMatchedCat</t>
+  </si>
+  <si>
     <t>FieldDescription</t>
   </si>
   <si>
     <t>时装类型</t>
   </si>
   <si>
+    <t>是否需要耳朵</t>
+  </si>
+  <si>
     <t>服装资源</t>
   </si>
   <si>
@@ -88,13 +97,22 @@
     <t>薄荷价格</t>
   </si>
   <si>
+    <t>服装对应图片名字</t>
+  </si>
+  <si>
+    <t>服装对应猫咪ID</t>
+  </si>
+  <si>
     <t>Type</t>
   </si>
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>enum(EnumCostumeType,Hat(帽子),Neckcloth(领带),Glass(眼镜))</t>
+    <t>enum(EnumCostumeType,Hat(帽子),Neckcloth(领带),Glass(眼镜),Hair(毛色))</t>
+  </si>
+  <si>
+    <t>bool</t>
   </si>
   <si>
     <t>string</t>
@@ -106,6 +124,9 @@
     <t>int</t>
   </si>
   <si>
+    <t>array(id(CatStatic))</t>
+  </si>
+  <si>
     <t>Uniqueness</t>
   </si>
   <si>
@@ -121,75 +142,212 @@
     <t>Client</t>
   </si>
   <si>
+    <t>酷酷眼镜</t>
+  </si>
+  <si>
     <t>眼镜</t>
   </si>
   <si>
-    <t>glass_frame</t>
-  </si>
-  <si>
-    <t>cat_a_Root_M/cat_a_Spine1_M/cat_a_Chest_M/cat_a_Neck_M/cat_a_NeckPart1_M/cat_a_NeckPart2_M/cat_a_Head_M/armeow_glasses_cateye</t>
+    <t>armeow_glasses_classic01_md_01</t>
+  </si>
+  <si>
+    <t>cat_a_Root_M/cat_a_Spine1_M/cat_a_Chest_M/cat_a_Neck_M/cat_a_NeckPart1_M/cat_a_NeckPart2_M/cat_a_Head_M/armeow_glasses_classic01</t>
   </si>
   <si>
     <t>glass101_icon</t>
   </si>
   <si>
+    <t>圆圆眼镜</t>
+  </si>
+  <si>
+    <t>armeow_glasses_classic02_md_01</t>
+  </si>
+  <si>
+    <t>cat_a_Root_M/cat_a_Spine1_M/cat_a_Chest_M/cat_a_Neck_M/cat_a_NeckPart1_M/cat_a_NeckPart2_M/cat_a_Head_M/armeow_glasses_classic02</t>
+  </si>
+  <si>
+    <t>glass102_icon</t>
+  </si>
+  <si>
+    <t>老花眼镜</t>
+  </si>
+  <si>
+    <t>armeow_glasses_classic04_md_01</t>
+  </si>
+  <si>
+    <t>cat_a_Root_M/cat_a_Spine1_M/cat_a_Chest_M/cat_a_Neck_M/cat_a_NeckPart1_M/cat_a_NeckPart2_M/cat_a_Head_M/armeow_glasses_classic04</t>
+  </si>
+  <si>
+    <t>glass104_icon</t>
+  </si>
+  <si>
+    <t>飞行员眼镜</t>
+  </si>
+  <si>
+    <t>armeow_glasses_steampunk_md_01</t>
+  </si>
+  <si>
+    <t>cat_a_Root_M/cat_a_Spine1_M/cat_a_Chest_M/cat_a_Neck_M/cat_a_NeckPart1_M/cat_a_NeckPart2_M/cat_a_Head_M/armeow_glasses_steampunk</t>
+  </si>
+  <si>
+    <t>glass103_icon</t>
+  </si>
+  <si>
+    <t>圣诞喵</t>
+  </si>
+  <si>
     <t>帽子</t>
   </si>
   <si>
-    <t>hat_deer</t>
-  </si>
-  <si>
-    <t>cat_a_Root_M/cat_a_Spine1_M/cat_a_Chest_M/cat_a_Neck_M/cat_a_NeckPart1_M/cat_a_NeckPart2_M/cat_a_Head_M/armeow_hat_deer</t>
+    <t>armeow_hat_christmas_md_01</t>
+  </si>
+  <si>
+    <t>cat_a_Root_M/cat_a_Spine1_M/cat_a_Chest_M/cat_a_Neck_M/cat_a_NeckPart1_M/cat_a_NeckPart2_M/cat_a_Head_M/armeow_hat_christmas</t>
   </si>
   <si>
     <t>hat201_icon</t>
   </si>
   <si>
-    <t>hat_baseball</t>
+    <t>棒球喵</t>
+  </si>
+  <si>
+    <t>armeow_hat_baseball_md_01</t>
   </si>
   <si>
     <t>cat_a_Root_M/cat_a_Spine1_M/cat_a_Chest_M/cat_a_Neck_M/cat_a_NeckPart1_M/cat_a_NeckPart2_M/cat_a_Head_M/armeow_hat_baseball</t>
   </si>
   <si>
+    <t>hat202_icon</t>
+  </si>
+  <si>
+    <t>魔术喵</t>
+  </si>
+  <si>
+    <t>armeow_hat_magic_md_01</t>
+  </si>
+  <si>
+    <t>cat_a_Root_M/cat_a_Spine1_M/cat_a_Chest_M/cat_a_Neck_M/cat_a_NeckPart1_M/cat_a_NeckPart2_M/cat_a_Head_M/armeow_hat_magic</t>
+  </si>
+  <si>
+    <t>hat203_icon</t>
+  </si>
+  <si>
+    <t>牛仔喵</t>
+  </si>
+  <si>
+    <t>armeow_hat_cowboy_md_01</t>
+  </si>
+  <si>
+    <t>cat_a_Root_M/cat_a_Spine1_M/cat_a_Chest_M/cat_a_Neck_M/cat_a_NeckPart1_M/cat_a_NeckPart2_M/cat_a_Head_M/armeow_hat_cowboy</t>
+  </si>
+  <si>
+    <t>hat204_icon</t>
+  </si>
+  <si>
+    <t>鹿角</t>
+  </si>
+  <si>
+    <t>armeow_hat_deer_md_01</t>
+  </si>
+  <si>
+    <t>cat_a_Root_M/cat_a_Spine1_M/cat_a_Chest_M/cat_a_Neck_M/cat_a_NeckPart1_M/cat_a_NeckPart3_M/cat_a_Head_M/armeow_hat_deer</t>
+  </si>
+  <si>
+    <t>hat205_icon</t>
+  </si>
+  <si>
+    <t>飞行员喵</t>
+  </si>
+  <si>
+    <t>armeow_hat_pilot_md_01</t>
+  </si>
+  <si>
+    <t>cat_a_Root_M/cat_a_Spine1_M/cat_a_Chest_M/cat_a_Neck_M/cat_a_NeckPart1_M/cat_a_NeckPart2_M/cat_a_Head_M/armeow_hat_pilot</t>
+  </si>
+  <si>
     <t>hat206_icon</t>
   </si>
   <si>
-    <t>glass_frame1</t>
-  </si>
-  <si>
-    <t>glass103_icon</t>
-  </si>
-  <si>
-    <t>r_glass3</t>
-  </si>
-  <si>
-    <t>r_glass</t>
-  </si>
-  <si>
-    <t>r_glass2</t>
-  </si>
-  <si>
-    <t>服装对应图片名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BodyWithEar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否需要耳朵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>红色领结</t>
+  </si>
+  <si>
+    <t>领带</t>
+  </si>
+  <si>
+    <t>armeow_neck_bowtie_md_01</t>
+  </si>
+  <si>
+    <t>cat_a_Root_M/cat_a_Spine1_M/cat_a_Chest_M/cat_a_Neck_M/cat_a_NeckPart1_M/armeow_neck_bowtie</t>
+  </si>
+  <si>
+    <t>necklace302_icon</t>
+  </si>
+  <si>
+    <t>红领巾</t>
+  </si>
+  <si>
+    <t>armeow_neck_cowboy_md_02</t>
+  </si>
+  <si>
+    <t>cat_a_Root_M/cat_a_Spine1_M/cat_a_Chest_M/cat_a_Neck_M/cat_a_NeckPart1_M/armeow_neck_cowboy</t>
+  </si>
+  <si>
+    <t>necklace303_icon</t>
+  </si>
+  <si>
+    <t>飞行员勋章</t>
+  </si>
+  <si>
+    <t>armeow_neck_pilot_md_01</t>
+  </si>
+  <si>
+    <t>cat_a_Root_M/cat_a_Spine1_M/cat_a_Chest_M/cat_a_Neck_M/cat_a_NeckPart1_M/armeow_neck_pilot</t>
+  </si>
+  <si>
+    <t>necklace304_icon</t>
+  </si>
+  <si>
+    <t>灰色</t>
+  </si>
+  <si>
+    <t>毛色</t>
+  </si>
+  <si>
+    <t>armeow_cat_young_diffuse_black</t>
+  </si>
+  <si>
+    <t>colorgrey401_icon</t>
+  </si>
+  <si>
+    <t>黄色</t>
+  </si>
+  <si>
+    <t>armeow_cat_young_diffuse_yellow</t>
+  </si>
+  <si>
+    <t>coloryellow402_icon</t>
+  </si>
+  <si>
+    <t>默认颜色</t>
+  </si>
+  <si>
+    <t>r_glass11</t>
+  </si>
+  <si>
+    <t>colornormal403_icon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,21 +356,352 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -220,11 +709,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -235,18 +966,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -533,34 +1310,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="10" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18.375" customWidth="1"/>
-    <col min="2" max="2" width="36.5" customWidth="1"/>
+    <col min="2" max="2" width="27.125" customWidth="1"/>
     <col min="3" max="4" width="26.5" customWidth="1"/>
     <col min="5" max="6" width="17.25" customWidth="1"/>
     <col min="7" max="8" width="20.5" customWidth="1"/>
     <col min="9" max="9" width="12.75" customWidth="1"/>
     <col min="10" max="10" width="13.875" customWidth="1"/>
     <col min="11" max="11" width="17.5" customWidth="1"/>
+    <col min="12" max="12" width="22.625" customWidth="1"/>
+    <col min="13" max="13" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -570,7 +1350,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -580,7 +1360,7 @@
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -590,7 +1370,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -601,136 +1381,151 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" ht="76.5" customHeight="1" spans="1:12">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J6" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="K6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="K7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+      <c r="L7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B8" s="3" t="b">
         <v>1</v>
@@ -762,10 +1557,13 @@
       <c r="K8" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L8" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B9" s="3" t="b">
         <v>1</v>
@@ -797,10 +1595,13 @@
       <c r="K9" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L9" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B10" s="3" t="b">
         <v>1</v>
@@ -832,25 +1633,31 @@
       <c r="K10" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L10" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11">
-        <v>10001</v>
+        <v>45</v>
+      </c>
+      <c r="G11" s="1">
+        <v>20001</v>
       </c>
       <c r="H11">
         <v>200</v>
@@ -862,203 +1669,585 @@
         <v>200</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12">
-        <v>20001</v>
+        <v>49</v>
+      </c>
+      <c r="G12" s="1">
+        <v>20002</v>
       </c>
       <c r="H12">
         <v>200</v>
       </c>
       <c r="I12">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J12">
         <v>200</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
       <c r="B13">
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13">
-        <v>20002</v>
+        <v>53</v>
+      </c>
+      <c r="G13" s="1">
+        <v>20003</v>
       </c>
       <c r="H13">
         <v>300</v>
       </c>
       <c r="I13">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="J13">
         <v>200</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
       <c r="B14">
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D14" t="b">
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14">
-        <v>10002</v>
+        <v>57</v>
+      </c>
+      <c r="G14" s="1">
+        <v>20004</v>
       </c>
       <c r="H14">
         <v>500</v>
       </c>
       <c r="I14">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="J14">
         <v>200</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+        <v>58</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
       <c r="B15">
         <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15">
-        <v>10003</v>
+        <v>62</v>
+      </c>
+      <c r="G15" s="1">
+        <v>20005</v>
       </c>
       <c r="H15">
         <v>501</v>
       </c>
       <c r="I15">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J15">
         <v>201</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+        <v>63</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
       <c r="B16">
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D16" t="b">
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16">
-        <v>10004</v>
+        <v>66</v>
+      </c>
+      <c r="G16" s="1">
+        <v>20006</v>
       </c>
       <c r="H16">
         <v>502</v>
       </c>
       <c r="I16">
-        <v>202</v>
+        <v>300</v>
       </c>
       <c r="J16">
         <v>202</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>68</v>
+      </c>
       <c r="B17">
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17">
-        <v>10005</v>
+        <v>70</v>
+      </c>
+      <c r="G17" s="1">
+        <v>20007</v>
       </c>
       <c r="H17">
         <v>503</v>
       </c>
       <c r="I17">
-        <v>203</v>
+        <v>500</v>
       </c>
       <c r="J17">
         <v>203</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="1">
+        <v>20008</v>
+      </c>
+      <c r="H18" s="4">
+        <v>200</v>
+      </c>
+      <c r="I18">
+        <v>500</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" s="1">
+        <v>20009</v>
+      </c>
+      <c r="H19" s="4">
+        <v>200</v>
+      </c>
+      <c r="I19">
+        <v>1000</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" s="1">
+        <v>20010</v>
+      </c>
+      <c r="H20" s="4">
+        <v>200</v>
+      </c>
+      <c r="I20">
+        <v>2000</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" s="1">
+        <v>20011</v>
+      </c>
+      <c r="H21" s="4">
+        <v>200</v>
+      </c>
+      <c r="I21">
+        <v>200</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" s="1">
+        <v>20012</v>
+      </c>
+      <c r="H22" s="4">
+        <v>200</v>
+      </c>
+      <c r="I22">
+        <v>300</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" s="1">
+        <v>20013</v>
+      </c>
+      <c r="H23" s="4">
+        <v>200</v>
+      </c>
+      <c r="I23">
+        <v>1000</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" t="s">
+        <v>87</v>
+      </c>
+      <c r="G24" s="1">
+        <v>20014</v>
+      </c>
+      <c r="H24" s="4">
+        <v>200</v>
+      </c>
+      <c r="I24">
+        <v>2000</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" s="1">
+        <v>20015</v>
+      </c>
+      <c r="H25" s="4">
+        <v>200</v>
+      </c>
+      <c r="I25">
+        <v>2000</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26" s="1">
+        <v>20016</v>
+      </c>
+      <c r="H26" s="4">
+        <v>200</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>